--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Desktop\crypto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F7CF4E-D3D7-4174-BED3-6672FC67F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF9595-D6D9-4D13-AEB7-774E846C5403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>trade</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>-1,4:0,9:0,4</t>
+  </si>
+  <si>
+    <t>7,9m</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,11 +905,11 @@
       </c>
       <c r="J2">
         <f>K2/((K2+L2)/100)</f>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
@@ -1024,7 +1027,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>0.10219724067451352</v>
+        <v>3.4065746891499771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1035,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>117.54</v>
+        <v>117.46</v>
       </c>
       <c r="D7" s="7">
-        <v>0.5</v>
+        <v>1.88</v>
       </c>
       <c r="E7" s="5">
         <v>0.25</v>
@@ -1054,25 +1057,37 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13612387272418403</v>
+        <v>0.58743402009196188</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>45617</v>
+      </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>117.7</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+        <v>118.15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9">
+        <v>98.7</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0.37240795598815168</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1080,15 +1095,17 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>118.59</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF9595-D6D9-4D13-AEB7-774E846C5403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C2532-88C8-4638-A470-2C06F986D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>trade</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>7,9m</t>
+  </si>
+  <si>
+    <t>444m</t>
+  </si>
+  <si>
+    <t>73m</t>
   </si>
 </sst>
 </file>
@@ -818,7 +824,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,11 +911,11 @@
       </c>
       <c r="J2">
         <f>K2/((K2+L2)/100)</f>
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
@@ -1091,21 +1097,31 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2">
+        <v>45618</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>118.59</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>99.8</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0.32043173960705928</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1113,15 +1129,25 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>118.97</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23535345044969347</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1129,15 +1155,17 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>119.25</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C2532-88C8-4638-A470-2C06F986D811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862FA17-6772-441C-A680-605696C94D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>trade</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>73m</t>
+  </si>
+  <si>
+    <t>62m</t>
+  </si>
+  <si>
+    <t>31,7m</t>
+  </si>
+  <si>
+    <t>26,65m</t>
   </si>
 </sst>
 </file>
@@ -824,7 +833,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,7 +924,7 @@
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
@@ -1151,21 +1160,34 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>45619</v>
+      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>119.25</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9">
+        <v>96.1</v>
+      </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0.93081761006290265</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1173,15 +1195,25 @@
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>120.36</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H12" s="9">
+        <v>50.7</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1189,15 +1221,25 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <v>120.36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H13" s="9">
+        <v>79.2</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1205,15 +1247,17 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>120.36</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862FA17-6772-441C-A680-605696C94D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C307E7A5-4592-486B-BF6D-5BB4267632E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>trade</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>26,65m</t>
+  </si>
+  <si>
+    <t>113m</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -833,7 +839,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,7 +930,7 @@
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
@@ -1243,21 +1249,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2">
+        <v>45620</v>
+      </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>120.36</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0.2243270189431712</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1265,15 +1283,17 @@
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>120.63</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C307E7A5-4592-486B-BF6D-5BB4267632E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC6CAEC-16D1-4250-83DE-8F849A140E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>trade</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>20m</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -926,11 +929,11 @@
       </c>
       <c r="J2">
         <f>K2/((K2+L2)/100)</f>
-        <v>100</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
@@ -1279,21 +1282,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2">
+        <v>45621</v>
+      </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>120.63</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="D15" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="9">
+        <v>99.6</v>
+      </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0.43936002652739603</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1301,15 +1316,17 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>121.16</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC6CAEC-16D1-4250-83DE-8F849A140E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDFFC09-8BB0-422A-8C2D-F97A6A176896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>trade</t>
   </si>
@@ -131,6 +142,9 @@
   </si>
   <si>
     <t>20m</t>
+  </si>
+  <si>
+    <t>21m</t>
   </si>
 </sst>
 </file>
@@ -291,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -543,9 +557,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,7 +597,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -689,7 +703,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -831,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -842,25 +856,25 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="8" width="19.90625" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -898,7 +912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45614</v>
       </c>
@@ -929,18 +943,18 @@
       </c>
       <c r="J2">
         <f>K2/((K2+L2)/100)</f>
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -968,7 +982,7 @@
         <v>0.11131089990580278</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -996,7 +1010,7 @@
         <v>0.11118713650358814</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -1024,7 +1038,7 @@
         <v>0.31610422896198997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45615</v>
       </c>
@@ -1054,7 +1068,7 @@
         <v>3.4065746891499771E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45616</v>
       </c>
@@ -1084,7 +1098,7 @@
         <v>0.58743402009196188</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45617</v>
       </c>
@@ -1114,7 +1128,7 @@
         <v>0.37240795598815168</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45618</v>
       </c>
@@ -1142,7 +1156,7 @@
         <v>0.32043173960705928</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>9</v>
@@ -1168,7 +1182,7 @@
         <v>0.23535345044969347</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45619</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>11</v>
@@ -1225,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>12</v>
@@ -1251,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45620</v>
       </c>
@@ -1281,7 +1295,7 @@
         <v>0.2243270189431712</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45621</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>0.43936002652739603</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>15</v>
@@ -1319,33 +1333,45 @@
       <c r="C16" s="1">
         <v>121.16</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="D16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="9">
+        <v>70.2</v>
+      </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9.904258831296886E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>121.28</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="5"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>17</v>
@@ -1361,7 +1387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>18</v>
@@ -1377,7 +1403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>19</v>
@@ -1393,7 +1419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
         <v>20</v>
@@ -1409,7 +1435,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
@@ -1425,7 +1451,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>22</v>
@@ -1441,7 +1467,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>23</v>
@@ -1457,7 +1483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
@@ -1473,7 +1499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>25</v>
@@ -1489,7 +1515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
@@ -1505,7 +1531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>27</v>
@@ -1521,7 +1547,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>28</v>
@@ -1537,7 +1563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
@@ -1553,7 +1579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
         <v>30</v>
@@ -1569,7 +1595,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
         <v>31</v>
@@ -1585,7 +1611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
         <v>32</v>
@@ -1601,7 +1627,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>33</v>
@@ -1617,7 +1643,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>34</v>
@@ -1633,7 +1659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>35</v>
@@ -1649,7 +1675,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
         <v>36</v>
@@ -1665,7 +1691,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>37</v>
@@ -1681,7 +1707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
@@ -1697,7 +1723,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
@@ -1713,7 +1739,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1">
         <v>40</v>
@@ -1729,7 +1755,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>41</v>
@@ -1745,7 +1771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>42</v>
@@ -1761,7 +1787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>43</v>
@@ -1777,7 +1803,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>44</v>
@@ -1793,7 +1819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>45</v>
@@ -1809,7 +1835,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>46</v>
@@ -1825,7 +1851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>47</v>
@@ -1841,7 +1867,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>48</v>
@@ -1857,7 +1883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>49</v>
@@ -1873,7 +1899,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>50</v>
@@ -1889,7 +1915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>51</v>
@@ -1905,7 +1931,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>52</v>
@@ -1921,7 +1947,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>53</v>
@@ -1937,7 +1963,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>54</v>
@@ -1953,7 +1979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>55</v>
@@ -1969,7 +1995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>56</v>
@@ -1985,7 +2011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>57</v>
@@ -2001,7 +2027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>58</v>
@@ -2017,7 +2043,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>59</v>
@@ -2033,7 +2059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>60</v>
@@ -2049,7 +2075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>61</v>
@@ -2065,7 +2091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>62</v>
@@ -2081,7 +2107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>63</v>
@@ -2097,7 +2123,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>64</v>
@@ -2113,7 +2139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12">
         <v>65</v>
@@ -2157,9 +2183,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2175,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44322</v>
       </c>

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDFFC09-8BB0-422A-8C2D-F97A6A176896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F5D306-6919-4C53-93AE-6BF4E25C3AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>trade</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>21m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>15m BTC correctie</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +949,7 @@
       </c>
       <c r="J2">
         <f>K2/((K2+L2)/100)</f>
-        <v>100</v>
+        <v>93.75</v>
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
@@ -951,7 +957,7 @@
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1353,7 +1359,7 @@
         <v>9.904258831296886E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
@@ -1361,33 +1367,48 @@
       <c r="C17" s="1">
         <v>121.28</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="7">
+        <v>-5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="9">
+        <v>70</v>
+      </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-2.2922163588390561</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>118.5</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="5"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>18</v>
@@ -1403,7 +1424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>19</v>
@@ -1419,7 +1440,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
         <v>20</v>
@@ -1435,7 +1456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
@@ -1451,7 +1472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>22</v>
@@ -1467,7 +1488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>23</v>
@@ -1483,7 +1504,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
@@ -1499,7 +1520,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>25</v>
@@ -1515,7 +1536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
@@ -1531,7 +1552,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>27</v>
@@ -1547,7 +1568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>28</v>
@@ -1563,7 +1584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
@@ -1579,7 +1600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
         <v>30</v>
@@ -1595,7 +1616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
         <v>31</v>

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F5D306-6919-4C53-93AE-6BF4E25C3AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBF962-3C33-4741-B25D-1C2FA9001A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>trade</t>
   </si>
@@ -151,6 +140,9 @@
   </si>
   <si>
     <t>15m BTC correctie</t>
+  </si>
+  <si>
+    <t>vergelding trade. Super dom</t>
   </si>
 </sst>
 </file>
@@ -311,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -563,9 +555,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -603,7 +595,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -709,7 +701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -851,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -861,26 +853,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1430798F-6517-4FA9-91ED-0BDD300E6DF3}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="8" width="19.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -918,7 +910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45614</v>
       </c>
@@ -949,7 +941,7 @@
       </c>
       <c r="J2">
         <f>K2/((K2+L2)/100)</f>
-        <v>93.75</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
@@ -957,10 +949,10 @@
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -988,7 +980,7 @@
         <v>0.11131089990580278</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -1016,7 +1008,7 @@
         <v>0.11118713650358814</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -1044,7 +1036,7 @@
         <v>0.31610422896198997</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45615</v>
       </c>
@@ -1074,7 +1066,7 @@
         <v>3.4065746891499771E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45616</v>
       </c>
@@ -1104,7 +1096,7 @@
         <v>0.58743402009196188</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45617</v>
       </c>
@@ -1134,7 +1126,7 @@
         <v>0.37240795598815168</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45618</v>
       </c>
@@ -1162,7 +1154,7 @@
         <v>0.32043173960705928</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>9</v>
@@ -1188,7 +1180,7 @@
         <v>0.23535345044969347</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45619</v>
       </c>
@@ -1219,7 +1211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>11</v>
@@ -1245,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>12</v>
@@ -1271,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45620</v>
       </c>
@@ -1301,7 +1293,7 @@
         <v>0.2243270189431712</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45621</v>
       </c>
@@ -1331,7 +1323,7 @@
         <v>0.43936002652739603</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>15</v>
@@ -1359,7 +1351,7 @@
         <v>9.904258831296886E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>16</v>
@@ -1390,7 +1382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>17</v>
@@ -1398,33 +1390,48 @@
       <c r="C18" s="1">
         <v>118.5</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="D18" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="9">
+        <v>70</v>
+      </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.10970464135020563</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>118.37</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>19</v>
@@ -1440,7 +1447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
         <v>20</v>
@@ -1456,7 +1463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>21</v>
@@ -1472,7 +1479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>22</v>
@@ -1488,7 +1495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>23</v>
@@ -1504,7 +1511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>24</v>
@@ -1520,7 +1527,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>25</v>
@@ -1536,7 +1543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>26</v>
@@ -1552,7 +1559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>27</v>
@@ -1568,7 +1575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>28</v>
@@ -1584,7 +1591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="1">
         <v>29</v>
@@ -1600,7 +1607,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
         <v>30</v>
@@ -1616,7 +1623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1">
         <v>31</v>
@@ -1632,7 +1639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
         <v>32</v>
@@ -1648,7 +1655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>33</v>
@@ -1664,7 +1671,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>34</v>
@@ -1680,7 +1687,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>35</v>
@@ -1696,7 +1703,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
         <v>36</v>
@@ -1712,7 +1719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>37</v>
@@ -1728,7 +1735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1">
         <v>38</v>
@@ -1744,7 +1751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1">
         <v>39</v>
@@ -1760,7 +1767,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="1">
         <v>40</v>
@@ -1776,7 +1783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="1">
         <v>41</v>
@@ -1792,7 +1799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>42</v>
@@ -1808,7 +1815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>43</v>
@@ -1824,7 +1831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>44</v>
@@ -1840,7 +1847,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>45</v>
@@ -1856,7 +1863,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1">
         <v>46</v>
@@ -1872,7 +1879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1">
         <v>47</v>
@@ -1888,7 +1895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1">
         <v>48</v>
@@ -1904,7 +1911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1">
         <v>49</v>
@@ -1920,7 +1927,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1">
         <v>50</v>
@@ -1936,7 +1943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1">
         <v>51</v>
@@ -1952,7 +1959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1">
         <v>52</v>
@@ -1968,7 +1975,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
         <v>53</v>
@@ -1984,7 +1991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1">
         <v>54</v>
@@ -2000,7 +2007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1">
         <v>55</v>
@@ -2016,7 +2023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1">
         <v>56</v>
@@ -2032,7 +2039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1">
         <v>57</v>
@@ -2048,7 +2055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1">
         <v>58</v>
@@ -2064,7 +2071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1">
         <v>59</v>
@@ -2080,7 +2087,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1">
         <v>60</v>
@@ -2096,7 +2103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
         <v>61</v>
@@ -2112,7 +2119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1">
         <v>62</v>
@@ -2128,7 +2135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1">
         <v>63</v>
@@ -2144,7 +2151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1">
         <v>64</v>
@@ -2160,7 +2167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
       <c r="B66" s="12">
         <v>65</v>
@@ -2204,9 +2211,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44322</v>
       </c>

--- a/18-11-24.xlsx
+++ b/18-11-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBF962-3C33-4741-B25D-1C2FA9001A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371378A-DAAE-498F-A529-7DA7014A38F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDA6786C-1286-4543-A817-93FCE0344BC6}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>trade</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>vergelding trade. Super dom</t>
+  </si>
+  <si>
+    <t>138m</t>
   </si>
 </sst>
 </file>
@@ -853,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1430798F-6517-4FA9-91ED-0BDD300E6DF3}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,11 +944,11 @@
       </c>
       <c r="J2">
         <f>K2/((K2+L2)/100)</f>
-        <v>88.235294117647058</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="K2">
         <f>COUNTIF(D2:D100, "&gt;0")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2">
         <f>COUNTIF(D2:D100, "&lt;0")</f>
@@ -1414,21 +1417,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>45622</v>
+      </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>118.37</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="9">
+        <v>65</v>
+      </c>
       <c r="I19" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>0.41395623891189359</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1436,15 +1451,17 @@
       <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>118.86</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
